--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1646442.723511806</v>
+        <v>1741113.187294646</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256414</v>
+        <v>6239134.533256415</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.972106918</v>
+        <v>840694.9721069182</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>363.1515658213021</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>269.3035266500056</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -801,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034777</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>133.7253909566181</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>67.83111579845512</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>63.16179373829494</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>188.0924663316284</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>28.25293961294787</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>99.31445879761193</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>297.5505666017713</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>96.31819090501394</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>54.46079155833878</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>209.060810629448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T11" t="n">
         <v>204.3497241367009</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
         <v>97.68290229956055</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>158.442456756648</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.7204508005566</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1624,7 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H14" t="n">
-        <v>295.617861616927</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
         <v>45.37937317040308</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>64.21168800535652</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0700504016732</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>158.442456756648</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.69460734075247</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
         <v>97.68290229956055</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>158.442456756648</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212044</v>
       </c>
       <c r="H20" t="n">
         <v>295.6178616169272</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>96.86031225301453</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>34.32389483613342</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>140.2673259791692</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>97.68290229956055</v>
@@ -2530,19 +2532,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>149.7204508005566</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2719,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>18.69785482012572</v>
+        <v>27.10637519976255</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
         <v>145.148367782564</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
         <v>219.7379838856521</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H29" t="n">
-        <v>295.6178616169272</v>
+        <v>295.617861616927</v>
       </c>
       <c r="I29" t="n">
         <v>45.37937317040308</v>
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T31" t="n">
-        <v>34.32389483613342</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
         <v>286.2142514133935</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>120.0625357052038</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>132.0144688218587</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>30.92845660653288</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>34.32389483613342</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3521,7 +3523,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
         <v>97.68290229956055</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>81.69684271970817</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
@@ -3715,13 +3717,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>28.37369078172765</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3797,7 +3799,7 @@
         <v>251.0030623803221</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>102.6906266444483</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>80.02277268623253</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3997,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T44" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U44" t="n">
         <v>251.0030623803221</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.1278152524737</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>92.0179275704632</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>1666.648133616381</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1666.648133616381</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1308.38243500963</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1308.38243500963</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>897.3965302200229</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>479.4327221182098</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4340,40 +4342,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>2053.247973680503</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.9282174162494</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="C4" t="n">
-        <v>404.9282174162494</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="D4" t="n">
-        <v>404.9282174162494</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="E4" t="n">
-        <v>404.9282174162494</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>404.9282174162494</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,7 +4497,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4504,34 +4506,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R4" t="n">
-        <v>659.6127056221363</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S4" t="n">
-        <v>659.6127056221363</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T4" t="n">
-        <v>659.6127056221363</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6127056221363</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="V4" t="n">
-        <v>404.9282174162494</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="W4" t="n">
-        <v>404.9282174162494</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="X4" t="n">
-        <v>404.9282174162494</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.9282174162494</v>
+        <v>550.5654064942405</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.175505447095</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.175505447095</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>808.3872528488505</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>397.4013480592429</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.9169416640007</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="C7" t="n">
-        <v>368.9169416640007</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="D7" t="n">
-        <v>368.9169416640007</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E7" t="n">
-        <v>368.9169416640007</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>368.9169416640007</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9171414023331</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
         <v>99.5995062532301</v>
@@ -4747,28 +4749,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>444.0275768541695</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.877315537684</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C8" t="n">
-        <v>1336.914798597272</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>1336.914798597272</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>1336.914798597272</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>925.928893807665</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>507.9650857058518</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2544.829299624459</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2544.829299624459</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2544.829299624459</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>2171.363541363379</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601806</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,16 +4886,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>516.956448217093</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="C10" t="n">
-        <v>348.0202652891861</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y10" t="n">
-        <v>516.956448217093</v>
+        <v>154.6104068172087</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5026,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924156</v>
@@ -5054,13 +5056,13 @@
         <v>3370.552243872424</v>
       </c>
       <c r="O11" t="n">
-        <v>4049.465812105077</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5075,13 +5077,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y11" t="n">
         <v>2765.933610202796</v>
@@ -5118,7 +5120,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K12" t="n">
         <v>488.1430095111811</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.3872674976251</v>
+        <v>1122.605169488108</v>
       </c>
       <c r="C13" t="n">
-        <v>194.3872674976251</v>
+        <v>953.668986560201</v>
       </c>
       <c r="D13" t="n">
-        <v>194.3872674976251</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E13" t="n">
-        <v>194.3872674976251</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F13" t="n">
-        <v>194.3872674976251</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G13" t="n">
-        <v>194.3872674976251</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H13" t="n">
         <v>194.3872674976251</v>
@@ -5221,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T13" t="n">
-        <v>1406.816559682884</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U13" t="n">
-        <v>1117.711255224911</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V13" t="n">
-        <v>863.0267670190239</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="W13" t="n">
-        <v>573.6095969820633</v>
+        <v>1753.035764359895</v>
       </c>
       <c r="X13" t="n">
-        <v>345.620046084046</v>
+        <v>1525.046213461878</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.3872674976251</v>
+        <v>1304.253634318348</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5260,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
@@ -5276,25 +5278,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K14" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.642956557056</v>
+        <v>1453.715711762088</v>
       </c>
       <c r="M14" t="n">
-        <v>2136.902529248584</v>
+        <v>1970.102190551772</v>
       </c>
       <c r="N14" t="n">
-        <v>3099.231944677224</v>
+        <v>2932.431605980412</v>
       </c>
       <c r="O14" t="n">
-        <v>3585.752505936257</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P14" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q14" t="n">
         <v>4733.000021926293</v>
@@ -5355,19 +5357,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K15" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L15" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M15" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
         <v>2136.002693439725</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>573.6095969820633</v>
+        <v>1122.605169488108</v>
       </c>
       <c r="C16" t="n">
-        <v>573.6095969820633</v>
+        <v>953.668986560201</v>
       </c>
       <c r="D16" t="n">
-        <v>573.6095969820633</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E16" t="n">
-        <v>573.6095969820633</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F16" t="n">
         <v>508.7493060675617</v>
@@ -5458,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682884</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.711255224911</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V16" t="n">
-        <v>863.0267670190239</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="W16" t="n">
-        <v>573.6095969820633</v>
+        <v>1753.035764359895</v>
       </c>
       <c r="X16" t="n">
-        <v>573.6095969820633</v>
+        <v>1525.046213461878</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.6095969820633</v>
+        <v>1304.253634318348</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C17" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
         <v>440.1593205155743</v>
@@ -5546,19 +5548,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y17" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K18" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L18" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O18" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P18" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>658.1264915058355</v>
+        <v>1122.605169488108</v>
       </c>
       <c r="C19" t="n">
-        <v>489.1903085779286</v>
+        <v>953.668986560201</v>
       </c>
       <c r="D19" t="n">
-        <v>489.1903085779286</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E19" t="n">
-        <v>341.2772149955355</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F19" t="n">
-        <v>194.3872674976251</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G19" t="n">
-        <v>194.3872674976251</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H19" t="n">
         <v>194.3872674976251</v>
@@ -5695,28 +5697,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T19" t="n">
-        <v>1406.816559682884</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U19" t="n">
-        <v>1117.711255224911</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V19" t="n">
-        <v>1117.711255224911</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="W19" t="n">
-        <v>1117.711255224911</v>
+        <v>1753.035764359895</v>
       </c>
       <c r="X19" t="n">
-        <v>889.7217043268934</v>
+        <v>1525.046213461878</v>
       </c>
       <c r="Y19" t="n">
-        <v>668.9291251833632</v>
+        <v>1304.253634318348</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H20" t="n">
         <v>141.5554198924156</v>
@@ -5750,25 +5752,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K20" t="n">
-        <v>597.708085861203</v>
+        <v>765.113734881556</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.817951496196</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M20" t="n">
-        <v>2408.222828443784</v>
+        <v>2162.143875059191</v>
       </c>
       <c r="N20" t="n">
-        <v>3370.552243872424</v>
+        <v>3124.473290487831</v>
       </c>
       <c r="O20" t="n">
-        <v>4114.52506777933</v>
+        <v>3610.993851746863</v>
       </c>
       <c r="P20" t="n">
-        <v>4495.258109903959</v>
+        <v>4310.30761496126</v>
       </c>
       <c r="Q20" t="n">
         <v>4733.000021926293</v>
@@ -5832,22 +5834,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K21" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L21" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N21" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P21" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>901.3910463933345</v>
+        <v>414.7704915554834</v>
       </c>
       <c r="C22" t="n">
-        <v>901.3910463933345</v>
+        <v>245.8343086275765</v>
       </c>
       <c r="D22" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E22" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F22" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I22" t="n">
         <v>95.71766921524075</v>
@@ -5932,28 +5934,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T22" t="n">
-        <v>1821.238811302082</v>
+        <v>1878.408049128092</v>
       </c>
       <c r="U22" t="n">
-        <v>1821.238811302082</v>
+        <v>1589.302744670118</v>
       </c>
       <c r="V22" t="n">
-        <v>1821.238811302082</v>
+        <v>1334.618256464231</v>
       </c>
       <c r="W22" t="n">
-        <v>1531.821641265122</v>
+        <v>1045.201086427271</v>
       </c>
       <c r="X22" t="n">
-        <v>1303.832090367104</v>
+        <v>817.2115355292533</v>
       </c>
       <c r="Y22" t="n">
-        <v>1083.039511223574</v>
+        <v>596.4189563857232</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -6020,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>962.9247759646606</v>
+        <v>3161.309648047117</v>
       </c>
       <c r="C24" t="n">
-        <v>788.4717466835336</v>
+        <v>2986.85661876599</v>
       </c>
       <c r="D24" t="n">
-        <v>639.5373370222824</v>
+        <v>2837.922209104739</v>
       </c>
       <c r="E24" t="n">
-        <v>480.2998820168269</v>
+        <v>2678.684754099283</v>
       </c>
       <c r="F24" t="n">
-        <v>333.7653240437119</v>
+        <v>2532.150196126168</v>
       </c>
       <c r="G24" t="n">
-        <v>197.3489189817664</v>
+        <v>2395.733791064222</v>
       </c>
       <c r="H24" t="n">
-        <v>106.3322115589798</v>
+        <v>2304.717083641436</v>
       </c>
       <c r="I24" t="n">
-        <v>95.71766921524075</v>
+        <v>2294.102541297696</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4590143936093</v>
+        <v>2382.843886476065</v>
       </c>
       <c r="K24" t="n">
-        <v>414.2869325418658</v>
+        <v>2612.671804624322</v>
       </c>
       <c r="L24" t="n">
-        <v>769.6414721740671</v>
+        <v>2968.026344256523</v>
       </c>
       <c r="M24" t="n">
-        <v>1203.680327106303</v>
+        <v>3402.065199188758</v>
       </c>
       <c r="N24" t="n">
-        <v>1663.615543921421</v>
+        <v>3862.000416003877</v>
       </c>
       <c r="O24" t="n">
-        <v>2062.146616470409</v>
+        <v>4260.531488552865</v>
       </c>
       <c r="P24" t="n">
-        <v>2362.66987106769</v>
+        <v>4634.910820119462</v>
       </c>
       <c r="Q24" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R24" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S24" t="n">
-        <v>2457.070587135881</v>
+        <v>4655.455459218338</v>
       </c>
       <c r="T24" t="n">
-        <v>2264.212730681702</v>
+        <v>4462.597602764158</v>
       </c>
       <c r="U24" t="n">
-        <v>2036.14137691516</v>
+        <v>4234.526248997616</v>
       </c>
       <c r="V24" t="n">
-        <v>1800.989268683417</v>
+        <v>3999.374140765873</v>
       </c>
       <c r="W24" t="n">
-        <v>1546.751911955215</v>
+        <v>3745.136784037672</v>
       </c>
       <c r="X24" t="n">
-        <v>1338.900411749682</v>
+        <v>3537.285283832139</v>
       </c>
       <c r="Y24" t="n">
-        <v>1131.140112984729</v>
+        <v>3329.524985067185</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3990.20420043529</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="C25" t="n">
-        <v>3821.268017507383</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="D25" t="n">
-        <v>3671.151378095047</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="E25" t="n">
-        <v>3523.238284512654</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="F25" t="n">
-        <v>3381.554116856928</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G25" t="n">
-        <v>3213.806591198672</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H25" t="n">
-        <v>3067.192078286991</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I25" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J25" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L25" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M25" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N25" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O25" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P25" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q25" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>4694.043622091449</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S25" t="n">
-        <v>4501.578929952707</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T25" t="n">
-        <v>4279.62137047225</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U25" t="n">
-        <v>4279.62137047225</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V25" t="n">
-        <v>4279.62137047225</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W25" t="n">
-        <v>3990.20420043529</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X25" t="n">
-        <v>3990.20420043529</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y25" t="n">
-        <v>3990.20420043529</v>
+        <v>194.3872674976251</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6208,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F26" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H26" t="n">
         <v>141.5554198924156</v>
@@ -6230,22 +6232,22 @@
         <v>597.708085861203</v>
       </c>
       <c r="L26" t="n">
-        <v>1262.218779019699</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M26" t="n">
-        <v>2223.623655967287</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N26" t="n">
-        <v>3185.953071395928</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O26" t="n">
-        <v>4049.465812105077</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P26" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q26" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6306,22 +6308,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K27" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L27" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M27" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P27" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q27" t="n">
         <v>2587.498588679581</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.1319977498457</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="C28" t="n">
-        <v>409.1319977498457</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="D28" t="n">
-        <v>409.1319977498457</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="E28" t="n">
-        <v>261.2189041674526</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="F28" t="n">
-        <v>242.3321821269216</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G28" t="n">
         <v>242.3321821269216</v>
@@ -6409,25 +6411,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T28" t="n">
-        <v>1691.121090492214</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U28" t="n">
-        <v>1402.015786034241</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V28" t="n">
-        <v>1147.331297828354</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W28" t="n">
-        <v>857.9141277913932</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X28" t="n">
-        <v>629.9245768933758</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y28" t="n">
-        <v>409.1319977498457</v>
+        <v>437.4598847546345</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6445,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6543,22 +6545,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K30" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L30" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M30" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O30" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P30" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q30" t="n">
         <v>2587.498588679581</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414.7704915554834</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C31" t="n">
-        <v>245.8343086275765</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D31" t="n">
         <v>95.71766921524075</v>
@@ -6646,25 +6648,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1913.078649972671</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T31" t="n">
-        <v>1878.408049128092</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.302744670118</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V31" t="n">
-        <v>1334.618256464231</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W31" t="n">
-        <v>1045.201086427271</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X31" t="n">
-        <v>817.2115355292533</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y31" t="n">
-        <v>596.4189563857232</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="32">
@@ -6704,13 +6706,13 @@
         <v>597.708085861203</v>
       </c>
       <c r="L32" t="n">
-        <v>1446.817951496196</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M32" t="n">
-        <v>2408.222828443784</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N32" t="n">
-        <v>3370.552243872424</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O32" t="n">
         <v>4114.52506777933</v>
@@ -6789,13 +6791,13 @@
         <v>1203.680327106303</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O33" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P33" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3995.409980277474</v>
+        <v>385.9291407342627</v>
       </c>
       <c r="C34" t="n">
-        <v>3826.473797349567</v>
+        <v>216.9929578063557</v>
       </c>
       <c r="D34" t="n">
-        <v>3676.357157937231</v>
+        <v>216.9929578063557</v>
       </c>
       <c r="E34" t="n">
-        <v>3528.444064354838</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
-        <v>3381.554116856928</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G34" t="n">
-        <v>3213.806591198672</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
-        <v>3067.192078286991</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I34" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J34" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L34" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M34" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N34" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O34" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P34" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q34" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>4785.883460762037</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S34" t="n">
-        <v>4785.883460762037</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T34" t="n">
-        <v>4785.883460762037</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="U34" t="n">
-        <v>4785.883460762037</v>
+        <v>1339.668814705367</v>
       </c>
       <c r="V34" t="n">
-        <v>4531.198972556151</v>
+        <v>1084.98432649948</v>
       </c>
       <c r="W34" t="n">
-        <v>4531.198972556151</v>
+        <v>795.5671564625197</v>
       </c>
       <c r="X34" t="n">
-        <v>4397.851024251243</v>
+        <v>567.5776055645024</v>
       </c>
       <c r="Y34" t="n">
-        <v>4177.058445107713</v>
+        <v>567.5776055645024</v>
       </c>
     </row>
     <row r="35">
@@ -7017,22 +7019,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K36" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L36" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M36" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N36" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O36" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P36" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q36" t="n">
         <v>2587.498588679581</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>414.7704915554834</v>
+        <v>708.9263542545928</v>
       </c>
       <c r="C37" t="n">
-        <v>245.8343086275765</v>
+        <v>539.9901713266859</v>
       </c>
       <c r="D37" t="n">
-        <v>95.71766921524075</v>
+        <v>539.9901713266859</v>
       </c>
       <c r="E37" t="n">
-        <v>95.71766921524075</v>
+        <v>539.9901713266859</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G37" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H37" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7117,28 +7119,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S37" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T37" t="n">
-        <v>1878.408049128092</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.302744670118</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="V37" t="n">
-        <v>1334.618256464231</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="W37" t="n">
-        <v>1045.201086427271</v>
+        <v>1339.35694912638</v>
       </c>
       <c r="X37" t="n">
-        <v>817.2115355292533</v>
+        <v>1111.367398228363</v>
       </c>
       <c r="Y37" t="n">
-        <v>596.4189563857232</v>
+        <v>890.5748190848325</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7156,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I38" t="n">
         <v>95.71766921524075</v>
@@ -7187,13 +7189,13 @@
         <v>3370.552243872424</v>
       </c>
       <c r="O38" t="n">
-        <v>4049.465812105077</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P38" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q38" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>362.1347931558809</v>
+        <v>975.7152219901975</v>
       </c>
       <c r="C40" t="n">
-        <v>362.1347931558809</v>
+        <v>806.7790390622906</v>
       </c>
       <c r="D40" t="n">
-        <v>362.1347931558809</v>
+        <v>656.6623996499549</v>
       </c>
       <c r="E40" t="n">
-        <v>362.1347931558809</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F40" t="n">
-        <v>362.1347931558809</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G40" t="n">
-        <v>194.3872674976251</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H40" t="n">
         <v>194.3872674976251</v>
@@ -7354,28 +7356,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1830.55658661943</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S40" t="n">
-        <v>1638.091894480689</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T40" t="n">
-        <v>1416.134335000232</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U40" t="n">
-        <v>1127.029030542259</v>
+        <v>1378.156265963967</v>
       </c>
       <c r="V40" t="n">
-        <v>872.3445423363717</v>
+        <v>1378.156265963967</v>
       </c>
       <c r="W40" t="n">
-        <v>582.927372299411</v>
+        <v>1378.156265963967</v>
       </c>
       <c r="X40" t="n">
-        <v>582.927372299411</v>
+        <v>1378.156265963967</v>
       </c>
       <c r="Y40" t="n">
-        <v>362.1347931558809</v>
+        <v>1157.363686820437</v>
       </c>
     </row>
     <row r="41">
@@ -7421,7 +7423,7 @@
         <v>2408.222828443784</v>
       </c>
       <c r="N41" t="n">
-        <v>3251.012327070181</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O41" t="n">
         <v>4114.52506777933</v>
@@ -7445,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7488,7 +7490,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K42" t="n">
         <v>488.1430095111811</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1122.605169488108</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="C43" t="n">
-        <v>953.668986560201</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="D43" t="n">
-        <v>803.5523471478652</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E43" t="n">
-        <v>655.6392535654721</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F43" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G43" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H43" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I43" t="n">
         <v>95.71766921524075</v>
@@ -7591,28 +7593,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T43" t="n">
-        <v>1628.774119163341</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U43" t="n">
-        <v>1525.046213461878</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V43" t="n">
-        <v>1525.046213461878</v>
+        <v>1128.720010374052</v>
       </c>
       <c r="W43" t="n">
-        <v>1525.046213461878</v>
+        <v>839.3028403370917</v>
       </c>
       <c r="X43" t="n">
-        <v>1525.046213461878</v>
+        <v>611.3132894390743</v>
       </c>
       <c r="Y43" t="n">
-        <v>1304.253634318348</v>
+        <v>390.5207102955442</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7630,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E44" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H44" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I44" t="n">
         <v>95.71766921524075</v>
@@ -7649,22 +7651,22 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K44" t="n">
-        <v>918.6120443066561</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L44" t="n">
-        <v>1767.721909941649</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M44" t="n">
-        <v>2284.108388731333</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N44" t="n">
-        <v>2813.464348992109</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O44" t="n">
-        <v>3676.977089701259</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P44" t="n">
-        <v>4376.290852915656</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q44" t="n">
         <v>4733.000021926293</v>
@@ -7682,13 +7684,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V44" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W44" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X44" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y44" t="n">
         <v>2765.933610202796</v>
@@ -7743,7 +7745,7 @@
         <v>2062.146616470409</v>
       </c>
       <c r="P45" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q45" t="n">
         <v>2587.498588679581</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1079.87168727185</v>
+        <v>357.6012537294741</v>
       </c>
       <c r="C46" t="n">
-        <v>910.935504343943</v>
+        <v>188.6650708015672</v>
       </c>
       <c r="D46" t="n">
-        <v>760.8188649316072</v>
+        <v>188.6650708015672</v>
       </c>
       <c r="E46" t="n">
-        <v>655.6392535654721</v>
+        <v>188.6650708015672</v>
       </c>
       <c r="F46" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G46" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H46" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7828,28 +7830,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T46" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="U46" t="n">
-        <v>1623.973345514697</v>
+        <v>1532.133506844109</v>
       </c>
       <c r="V46" t="n">
-        <v>1369.288857308811</v>
+        <v>1277.449018638222</v>
       </c>
       <c r="W46" t="n">
-        <v>1079.87168727185</v>
+        <v>988.0318486012613</v>
       </c>
       <c r="X46" t="n">
-        <v>1079.87168727185</v>
+        <v>760.042297703244</v>
       </c>
       <c r="Y46" t="n">
-        <v>1079.87168727185</v>
+        <v>539.2497185597139</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050815</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8702,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>194.3363706804256</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>74.60209794880342</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>100.4832365912983</v>
       </c>
       <c r="M14" t="n">
-        <v>99.871812022065</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>74.60209794880342</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>3.419393410990466</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,13 +9415,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>260.0527905534082</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.8186817603023</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>74.60209794880342</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>3.419393410990466</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>74.60209794880365</v>
       </c>
       <c r="Q24" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>3.419393410990466</v>
@@ -9878,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>231.1974039681306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>74.60209794880342</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>3.419393410990466</v>
@@ -10191,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>74.60209794880342</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>3.419393410990466</v>
@@ -10352,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>74.60209794880348</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>3.419393410990466</v>
@@ -10665,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>74.60209794880342</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>3.419393410990466</v>
@@ -10835,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>194.3363706804256</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,10 +11071,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>316.5995337026472</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>74.60209794880342</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.1689464528317</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>74.60209794880365</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>3.419393410990466</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>128.080541579943</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>68.8642025515382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>81.20936001757472</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>128.080541579943</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.1373728411848</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>128.080541579943</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>51.75516076519783</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>185.4140890495187</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>5.153722043762059</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>68.8642025515382</v>
       </c>
     </row>
     <row r="26">
@@ -24607,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>126.7231932028055</v>
+        <v>118.3146728231687</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24886,10 +24888,10 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T31" t="n">
-        <v>185.4140890495187</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>26.37142694136533</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>93.6951865671785</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>114.4925914163984</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>185.4140890495187</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.224597564174488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>257.8405606316658</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>183.5236247689451</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>172.1148706375955</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>42.30614739409545</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>53.40312045246804</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>515462.0926828007</v>
       </c>
       <c r="F2" t="n">
+        <v>515462.0926828008</v>
+      </c>
+      <c r="G2" t="n">
         <v>515462.0926828007</v>
       </c>
-      <c r="G2" t="n">
-        <v>515462.0926828006</v>
-      </c>
       <c r="H2" t="n">
-        <v>515462.0926828007</v>
+        <v>515462.0926828008</v>
       </c>
       <c r="I2" t="n">
         <v>515462.0926828007</v>
@@ -26338,22 +26340,22 @@
         <v>515462.0926828007</v>
       </c>
       <c r="K2" t="n">
-        <v>515462.0926828007</v>
+        <v>515462.0926828008</v>
       </c>
       <c r="L2" t="n">
-        <v>515462.0926828007</v>
+        <v>515462.0926828008</v>
       </c>
       <c r="M2" t="n">
         <v>515462.0926828007</v>
       </c>
       <c r="N2" t="n">
-        <v>515462.0926828007</v>
+        <v>515462.0926828008</v>
       </c>
       <c r="O2" t="n">
         <v>515462.0926828007</v>
       </c>
       <c r="P2" t="n">
-        <v>515462.0926828008</v>
+        <v>515462.0926828007</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>27510.00885503006</v>
+        <v>27510.00885503007</v>
       </c>
       <c r="F4" t="n">
         <v>27510.00885503007</v>
@@ -26439,7 +26441,7 @@
         <v>27510.00885503007</v>
       </c>
       <c r="J4" t="n">
-        <v>27510.00885503006</v>
+        <v>27510.00885503007</v>
       </c>
       <c r="K4" t="n">
         <v>27510.00885503007</v>
@@ -26451,10 +26453,10 @@
         <v>27510.00885503007</v>
       </c>
       <c r="N4" t="n">
-        <v>27510.00885503006</v>
+        <v>27510.00885503007</v>
       </c>
       <c r="O4" t="n">
-        <v>27510.00885503008</v>
+        <v>27510.00885503007</v>
       </c>
       <c r="P4" t="n">
         <v>27510.00885503007</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340214.3127939011</v>
+        <v>-340214.3127939015</v>
       </c>
       <c r="C6" t="n">
         <v>249753.5664206434</v>
       </c>
       <c r="D6" t="n">
-        <v>249753.5664206435</v>
+        <v>249753.5664206433</v>
       </c>
       <c r="E6" t="n">
         <v>-316266.7263161268</v>
       </c>
       <c r="F6" t="n">
+        <v>391984.3704357016</v>
+      </c>
+      <c r="G6" t="n">
         <v>391984.3704357014</v>
       </c>
-      <c r="G6" t="n">
-        <v>391984.3704357013</v>
-      </c>
       <c r="H6" t="n">
-        <v>391984.3704357014</v>
+        <v>391984.3704357015</v>
       </c>
       <c r="I6" t="n">
-        <v>391984.3704357014</v>
+        <v>391984.3704357015</v>
       </c>
       <c r="J6" t="n">
         <v>215561.1512431084</v>
       </c>
       <c r="K6" t="n">
-        <v>391984.3704357014</v>
+        <v>391984.3704357015</v>
       </c>
       <c r="L6" t="n">
         <v>391984.3704357015</v>
@@ -26555,10 +26557,10 @@
         <v>261854.130466292</v>
       </c>
       <c r="N6" t="n">
-        <v>391984.3704357014</v>
+        <v>391984.3704357015</v>
       </c>
       <c r="O6" t="n">
-        <v>391984.3704357014</v>
+        <v>391984.3704357015</v>
       </c>
       <c r="P6" t="n">
         <v>391984.3704357015</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1065.242421490194</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.58227584217843</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>54.61924611435154</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>12.70857168995104</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>78.83407618170271</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>319.5720479251856</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>225.6917036891666</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>120.3625334052645</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>56.85643004418321</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>26.37220616258588</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>154.9059766032753</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>80.50483023399946</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.523842722646776</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,7 +31047,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31054,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,40 +31120,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31160,7 +31162,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34702,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35422,7 +35424,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O11" t="n">
-        <v>685.7712810430841</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P11" t="n">
         <v>384.5788304289183</v>
@@ -35431,7 +35433,7 @@
         <v>240.1433454771049</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239243</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197696</v>
       </c>
       <c r="L12" t="n">
         <v>358.9439794264659</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K14" t="n">
         <v>648.7905592051118</v>
       </c>
       <c r="L14" t="n">
-        <v>440.0255184141886</v>
+        <v>540.5087550054869</v>
       </c>
       <c r="M14" t="n">
-        <v>621.4743158500283</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N14" t="n">
         <v>972.0499145743842</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P14" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R14" t="n">
         <v>53.4176149856001</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K15" t="n">
         <v>232.1494122709661</v>
@@ -35738,7 +35740,7 @@
         <v>464.581027085978</v>
       </c>
       <c r="O15" t="n">
-        <v>477.1587368871756</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P15" t="n">
         <v>303.5588430275571</v>
@@ -35963,7 +35965,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197696</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264659</v>
@@ -35981,7 +35983,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K20" t="n">
         <v>324.645146633947</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M20" t="n">
         <v>971.1160373207958</v>
@@ -36133,13 +36135,13 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O20" t="n">
-        <v>751.4877009160666</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.1433454771049</v>
+        <v>426.9620272374072</v>
       </c>
       <c r="R20" t="n">
         <v>53.4176149856001</v>
@@ -36200,7 +36202,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197696</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264659</v>
@@ -36218,7 +36220,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>402.556638938372</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275571</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>324.645146633947</v>
       </c>
       <c r="L26" t="n">
-        <v>671.2229223823192</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M26" t="n">
         <v>971.1160373207958</v>
@@ -36607,7 +36609,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O26" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P26" t="n">
         <v>384.5788304289183</v>
@@ -36616,7 +36618,7 @@
         <v>240.1433454771049</v>
       </c>
       <c r="R26" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197696</v>
       </c>
       <c r="L27" t="n">
         <v>358.9439794264659</v>
@@ -36692,7 +36694,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197696</v>
       </c>
       <c r="L30" t="n">
         <v>358.9439794264659</v>
@@ -36929,7 +36931,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>324.645146633947</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646391</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M32" t="n">
         <v>971.1160373207958</v>
@@ -37081,7 +37083,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O32" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P32" t="n">
         <v>384.5788304289183</v>
@@ -37157,7 +37159,7 @@
         <v>438.4230857901371</v>
       </c>
       <c r="N33" t="n">
-        <v>464.581027085978</v>
+        <v>539.1831250347815</v>
       </c>
       <c r="O33" t="n">
         <v>402.556638938372</v>
@@ -37166,7 +37168,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197696</v>
       </c>
       <c r="L36" t="n">
         <v>358.9439794264659</v>
@@ -37403,7 +37405,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O38" t="n">
-        <v>685.7712810430841</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P38" t="n">
         <v>384.5788304289183</v>
@@ -37564,7 +37566,7 @@
         <v>240.1433454771049</v>
       </c>
       <c r="R38" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37789,10 +37791,10 @@
         <v>971.1160373207958</v>
       </c>
       <c r="N41" t="n">
-        <v>851.3025238650473</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O41" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P41" t="n">
         <v>384.5788304289183</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239243</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197696</v>
       </c>
       <c r="L42" t="n">
         <v>358.9439794264659</v>
@@ -38017,25 +38019,25 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K44" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L44" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M44" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N44" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O44" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P44" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.3122919299366</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R44" t="n">
         <v>53.4176149856001</v>
@@ -38111,10 +38113,10 @@
         <v>402.556638938372</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275571</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
